--- a/CoreRulebook/Data/Spells/Spells.xlsx
+++ b/CoreRulebook/Data/Spells/Spells.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$I$5:$J$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$M$64</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$M$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$I$5:$J$18</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -967,7 +967,7 @@
     <t xml:space="preserve">\spExample{Global Summons}{Holding a picture of an item your are familiar with in your mind, cause it to instantly appear at your location, from anywhere in the world.}</t>
   </si>
   <si>
-    <t xml:space="preserve">Teleport</t>
+    <t xml:space="preserve">Apparate</t>
   </si>
   <si>
     <t xml:space="preserve">Cruratele</t>
@@ -1495,12 +1495,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1510,22 +1510,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="E27" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="topRight" activeCell="H32" activeCellId="0" sqref="H32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C37" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topRight" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="25.4"/>
@@ -1536,7 +1535,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,7 +3334,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I5:J18"/>
+  <autoFilter ref="A1:M64"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Spells/Spells.xlsx
+++ b/CoreRulebook/Data/Spells/Spells.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$M$64</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$M$61</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$I$5:$J$18</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="427">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -74,8 +74,8 @@
     <t xml:space="preserve">Piertotum Locomotum</t>
   </si>
   <si>
-    <t xml:space="preserve">Breathe a modicum of life into a target and cause it to move and take actions as if were alive. 
-Animate spells typically last for only a few minutes, unless cast by an exceptionally powerful wizard. </t>
+    <t xml:space="preserve">Breathe a modicum of life into a target and cause it to move and take actions as if were alive: from animating simple origami swans, to calling forth legions of statues and articulated trees. 
+Animation spells typically required continued \imp{concentration} from the caster in order to sustain, though more powerful casters can imbue their creations with purpose without needing to focus upon them. </t>
   </si>
   <si>
     <t xml:space="preserve">The Subtle Nuances of Transmogrification, Transformation and Transfiguration</t>
@@ -93,7 +93,7 @@
     <t xml:space="preserve">Abissio</t>
   </si>
   <si>
-    <t xml:space="preserve">Cheapen and deteriorate a target, without fundamentally altering its nature. 
+    <t xml:space="preserve">When you \imp{degrade} a target, you cheapen and deteriorate it, weaken its structure and make it less appealing - though without fundamentally altering its nature. 
 Physical objects become tarnished and pockmarked, losing their effectiveness, whilst living beings find their muscles temporarily weakened, and their mind clouded over. 
 </t>
   </si>
@@ -117,8 +117,8 @@
     <t xml:space="preserve">Meliorus</t>
   </si>
   <si>
-    <t xml:space="preserve">Improve and boost the quality of a target, without fundamentally altering its nature. 
-Physical objects regain their shine, dents reform and vanish. Living beings under the effect of this spell find themselves with a sudden burst of energy, able to do more than they were before. </t>
+    <t xml:space="preserve">A \imp{refined} target finds its quality improved, kinks worked out and generally become their `best selves’, without fundamentally altering their nature. 
+Physical objects regain their shine, dents reform and vanish, and unpleasant food takes on delicious flavour. Living beings under the effect of this spell find themselves with a sudden burst of energy, able to do more than they were before. </t>
   </si>
   <si>
     <t xml:space="preserve">Theories of Transubstantial Transfiguration</t>
@@ -140,8 +140,8 @@
     <t xml:space="preserve">Mutatum</t>
   </si>
   <si>
-    <t xml:space="preserve">Change the nature of an object or being – turn one thing into another. 
-Transmutation spells typically last 1 hour when cast on inanimate objects, reduced to one minute when the being is trying to fight back against the enchantment. </t>
+    <t xml:space="preserve">\imp{Transmutation} is the ultimate act of \imp{Alteration}: changing the nature of an object, at a fundamental nature. With sufficient control, you can completely change one thing into another. 
+The \imp{transmutation} of humans is a notoriously difficult feat (\imp{Quartum} at least)– especially when the target is unwilling. In such circumstances, the change of form usually lasts only as long as the caster is able to maintain \imp{concentration}. </t>
   </si>
   <si>
     <t xml:space="preserve">A Beginner\apos{}s Guide to Transfiguration</t>
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Amicus</t>
   </si>
   <si>
-    <t xml:space="preserve">Cause a being to calm, become positive to you, or percieve you as a friend and ally, making them much more likely to listen to you and bend to your words. Charming is not mind control, however – you cannot use this spell to convince someone to do something which is utterly against their moral code, or to deliberately cause harm to themselves. </t>
+    <t xml:space="preserve">You may cause a being to calm, become positive to you, or perceive you as a friend and ally, making them much more likely to listen to you and bend to your words. \imp{Charming} is not mind control, however: you cannot use this spell to convince someone to do something which is utterly against their moral code, or to deliberately cause harm to themselves. </t>
   </si>
   <si>
     <t xml:space="preserve">On the Mysteries of the Human Mind</t>
@@ -183,10 +183,10 @@
     <t xml:space="preserve">Conceal</t>
   </si>
   <si>
-    <t xml:space="preserve">Inelatut Mascut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hide, camouflage or otherwise cause an object to be much harder to detect. </t>
+    <t xml:space="preserve">Intervisio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A \imp{Conceal} spell can make an object or being much harder to detect. At the more powerful end, you can render entire buildings – cities even – totally invisible, though less skilled users might have to rely on a more chameleon-like approach to remaining obscured, rather than totally hidden. </t>
   </si>
   <si>
     <t xml:space="preserve">Merlin\apos{}s Tricks and Incantations</t>
@@ -213,7 +213,8 @@
     <t xml:space="preserve">Confundo</t>
   </si>
   <si>
-    <t xml:space="preserve">Cause a being to lose focus, or fail to notice a critical detail </t>
+    <t xml:space="preserve">A \imp{Distracted} foe is easy to bypass – perhaps you cloud their mind with \imp{confusion} as your allies leap to attack, or you cause them to lose focus at a crucial moment as you sneak past them. 
+A \imp{Distraction} can cause your target to momentarily lose focus, and even have brief visual or auditory hallucinations. </t>
   </si>
   <si>
     <t xml:space="preserve">Jiggery Pockery \&amp; Hocus Pocus</t>
@@ -234,7 +235,8 @@
     <t xml:space="preserve">Allucianato</t>
   </si>
   <si>
-    <t xml:space="preserve">Bend and twist light to create an illusory image. These images appear to be real on a cursory glance, but are incorporeal and immaterial, passing through solid matter. </t>
+    <t xml:space="preserve">A |imp{Mirage} allows you to bend and twist light to create an illusory image with the power of your mind. These images appear to be real on a cursory glance, but are incorporeal and immaterial, passing through solid matter. 
+At a basic level, you can create only simple, static images – with only visual stimuli. A more powerful \imp{illusionist} can (with continued \imp{concentration}) cause their illusions to move and to mimic sounds and smells.</t>
   </si>
   <si>
     <t xml:space="preserve">Light and Perception: The Magician\apos{}s Mastery</t>
@@ -264,7 +266,8 @@
     <t xml:space="preserve">Sermo Colloquius</t>
   </si>
   <si>
-    <t xml:space="preserve">Enhance your ability to communicate, either by allowing telepathic connection at a great distance, or allowing you to understand a being without a shared language. </t>
+    <t xml:space="preserve">The ability to \imp{Communicate} is vital for an adventurer – whether you are establishing a mental link with your allies so that you may communicate at great distances or sending an urgent message halfway across the globe. 
+You may also come across beings with whom you share no language, or encounter runes or pictograms which are meaningless to you: the \imp{communicate} spell might not be flashy, but it is a cornerstone of magical relations. </t>
   </si>
   <si>
     <t xml:space="preserve">Communing with Others, and with Yourself</t>
@@ -276,16 +279,17 @@
     <t xml:space="preserve">\spExample{Tongues}{You can speak and understand the language of a target living being.}</t>
   </si>
   <si>
-    <t xml:space="preserve">Dream</t>
+    <t xml:space="preserve">Slumber</t>
   </si>
   <si>
     <t xml:space="preserve">Somnus</t>
   </si>
   <si>
-    <t xml:space="preserve">Alter, enter and detect the dreams of a target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading People, Reading Minds</t>
+    <t xml:space="preserve">The world of dreams is a mysterious place – no wizard can truly understand it. With the \imp{Slumber} spell, however, a wizard has the ability to view, enter and manipulate the dreams of a sleeping entity.  
+With a sufficient force of will, you may also force living beings to enter the land of nod – though larger and more intelligent beings requires significantly more power to send to sleep. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dream Oracle</t>
   </si>
   <si>
     <t xml:space="preserve">\spExample{Dreamsense}{Know when a nearby being is dreaming. }</t>
@@ -303,7 +307,7 @@
     <t xml:space="preserve">Virtus Animus</t>
   </si>
   <si>
-    <t xml:space="preserve">Project positive energy into your targets, burning away negative thoughts and bolstering their ability to be brave and commit acts of heroism. </t>
+    <t xml:space="preserve">Project positive energy into your targets, burning away negative thoughts and bolstering their ability to be brave and commit acts of heroism. When the chips are down, and your allies have lost the ability to \imp{Endure} your foes attacks, a little \imp{inspiration} can go a long way. </t>
   </si>
   <si>
     <t xml:space="preserve">Mind Beyond Body</t>
@@ -318,7 +322,8 @@
     <t xml:space="preserve">Revelio</t>
   </si>
   <si>
-    <t xml:space="preserve">Heighten your senses with magic, allowing you to detect magic, traps and the presence of other beings.</t>
+    <t xml:space="preserve">Nothing is ever really as it seems – the ability to broaden your \imp{Senses} to detect the presence of things hidden from your view can be incredibly useful. 
+You can use this spell to \imp{sense} the presence of magic spells and traps that might ensnare you, or feel the presence of nearby humanoids. The most powerful Seers use their \imp{senses} to see beyond all facades and gain `truesight’, seeing through all forms of invisibility, deception and concealment. </t>
   </si>
   <si>
     <t xml:space="preserve">Detection is the Best Defense</t>
@@ -336,7 +341,7 @@
     <t xml:space="preserve">\spExample{Truesight}{You see absolutely everything – you see simultaenously into the astral plane, as well as through all forms of invisibility, deception and other forms of concealment. }</t>
   </si>
   <si>
-    <t xml:space="preserve">Banish</t>
+    <t xml:space="preserve">Vanish</t>
   </si>
   <si>
     <t xml:space="preserve">Conjuration</t>
@@ -345,7 +350,8 @@
     <t xml:space="preserve">Evanesco</t>
   </si>
   <si>
-    <t xml:space="preserve">Send an object or creature into nothingness, banishing it from this reality. For all but the most powerful wizards, this spell only works on beigns which have been \imp{Manifested} – to banish a real object requires immense power. </t>
+    <t xml:space="preserve">When you \imp{vanish} an object or creature, you force it through the cracks in reality; sending them into nothingness and oblivion, or back to whatever \imp{Realm} they originally hailed from. 
+For all but the most powerful wizards, this spell only works on entities which have been \imp{Manifested} or \imp{Forged} by their own hand– to vanish a creature summoned by another requires a certain amount of power, and banishing a truly-real thing of any particular size or power is a very difficult act indeed. </t>
   </si>
   <si>
     <t xml:space="preserve">Making and Unmaking: The Art of Conjuration</t>
@@ -360,7 +366,8 @@
     <t xml:space="preserve">Impedimentia</t>
   </si>
   <si>
-    <t xml:space="preserve">Constrain a target in both a physical or metaphysical sense: summon ropes to ensnare them, or bind a summoned creature to  this reality and to your will. </t>
+    <t xml:space="preserve">A \imp{Binding} spell allows one to attempt to prevent a foe from escaping – be it by summoning snares to slow their movement, or ropes to bind them in one place, rendering them \imp{Trapped}. A more inventive user might also use it to stick two objects together. 
+However, \imp{Binding} is not merely a physical act: a powerful mage may use this spell to \imp{Bind} a summoned creature to their will, gaining the ability to control powerful extraplanar beings. </t>
   </si>
   <si>
     <t xml:space="preserve">Conjuring and Summoning for the Experienced Witch</t>
@@ -384,8 +391,8 @@
     <t xml:space="preserve">Confabricor</t>
   </si>
   <si>
-    <t xml:space="preserve">Create an entirely new object, either by assembling existing materials, or by simply willing it into existence. 
-Summoned objects are always lesser in quality than those that they attempt to mimic, and typically disintegrate into dust after mere minutes to hours. </t>
+    <t xml:space="preserve">\imp{Forging} is the magical art of creating an entirely new object, either by assembling existing materials, or by simply willing it into existence. You might summon a shiny trinket to distract an animal, or simply conjure a rock in mid-air above your foe’s head – though larger and more complex objects require more power to \imp{Forge}. 
+Summoned objects are almost always lesser in quality than those that they attempt to mimic, and typically disintegrate into dust after mere minutes to hours. </t>
   </si>
   <si>
     <t xml:space="preserve">Summoning Your Desires</t>
@@ -409,8 +416,8 @@
     <t xml:space="preserve">Sortia</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjure a living being out of nothing, fabricating them from raw magic, or pulling an existing creature from some other plane of existence. 
-Summoned beings are generally created with a positive attitude towards you, and will obey your commands (to a limited extent), as if they were a trained animal or friendly person. Summonings generally disintegrate within a few minutes unless bolstered by a \imp{Bind}.</t>
+    <t xml:space="preserve">A \imp{Manifestation} is a magical spell which conjures a living being out of nothing, fabricating them from raw magic, or pulling an existing creature from some other plane of existence. You might be forced to start with pulling bunnies out of a metaphorical hat, but before you know it, you can summon a swarm of \imp{Dementors} to chase your foes to hell and back. 
+Summoned beings are generally created with a positive attitude towards you, and will obey your commands (to a limited extent), as if they were a trained animal or friendly person. Summonings generally disintegrate within a few minutes unless bolstered by a \imp{Bind}, or maintained through \imp{Concentration}. </t>
   </si>
   <si>
     <t xml:space="preserve">The Demons Beyond the Veil</t>
@@ -434,19 +441,20 @@
     <t xml:space="preserve">Vitiosus</t>
   </si>
   <si>
-    <t xml:space="preserve">Turn a target’s own abilities against them: twist the magical effects of an enchanted item into something darker, cause a healing potion to become tainted with acid or cause a living being’s hands to disobey them. </t>
+    <t xml:space="preserve">A being afflicted with a \imp{Corrupting} curse finds that their own abilities have been turned against them: the magical effects of an enchanted item have been warped into something darker, a healing potion can become tainted with acid, and maybe a living being’s hands disobey them, or attempt to throttle their owner.
+The \imp{Corrupt} spell is the vindictive mage’s most powerful tool, as it allows one to take revenge in as imaginative way as possible.  </t>
   </si>
   <si>
     <t xml:space="preserve">The Bumper Book of Crooked Curses</t>
   </si>
   <si>
-    <t xml:space="preserve">Disable</t>
+    <t xml:space="preserve">Stun</t>
   </si>
   <si>
     <t xml:space="preserve">Stupefy</t>
   </si>
   <si>
-    <t xml:space="preserve">Cause a target to be unable to function in any way, forcing a living being to become stunned or unconscious. </t>
+    <t xml:space="preserve">A victim of a \imp{Stunning} curse finds their ability to function severely impaired. A weaker \imp{Stun} might cloud their mind for a moment, \imp{Confusing} them for a while, or simply \imp{trap} them in one place, but a more powerful stun might render them \imp{immobilised} or \imp{unconscious} for a significant period of time. </t>
   </si>
   <si>
     <t xml:space="preserve">Curses \&amp; Counter Curses</t>
@@ -467,7 +475,7 @@
     <t xml:space="preserve">Expelliarmus</t>
   </si>
   <si>
-    <t xml:space="preserve">De-fang a target by removing their means of attack: enemies will drop their wands, or a beasts claws would retract or become blunted. </t>
+    <t xml:space="preserve">With a \imp{Disarm} spell you may de-fang a target by removing their means of attack: enemies will drop their wands, or a beasts claws would retract or become blunted. </t>
   </si>
   <si>
     <t xml:space="preserve">A Compendium of Common Curses</t>
@@ -485,7 +493,7 @@
     <t xml:space="preserve">Ictus</t>
   </si>
   <si>
-    <t xml:space="preserve">Cause a target to suffer from a creeping disease, poison, contagion or illness which gradually impedes their abilities and their senses. </t>
+    <t xml:space="preserve">An \imp{infecting} curse is a particularly unpleasant spell which causes a target to suffer from a creeping disease, poison, contagion or illness which gradually impedes their abilities and their senses. A weaker \imp{Infect} might mimic a vicious insect sting, but in the hands of an evil wizard, necrotic, flesh-eating diseases are not unheard of. </t>
   </si>
   <si>
     <t xml:space="preserve">Voodoo and Vomiting: A Study in Curses</t>
@@ -506,7 +514,8 @@
     <t xml:space="preserve">Incendio</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate, create and extinguish the primal force of fire and heat. Attacks with \imp{\name} primarily deal \imp{Fire} damage, and occasionally \imp{Concussive}. </t>
+    <t xml:space="preserve">Manipulate, create and extinguish the primal force of fire and heat. You may summon jets of fire from your wand, or fling it at your opponent as a flaming ball of heat and combustion. 
+You might also \imp{concentrate} on an existing fire and manipulate it, shape it, douse it or control it as you desire. </t>
   </si>
   <si>
     <t xml:space="preserve">Igniting the Spark: An Introduction to Elemental Magic</t>
@@ -554,7 +563,8 @@
     <t xml:space="preserve">Gaius</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate the everpresent Earth beneath your feet, digging mighty trenches or raising enormous walls, or simply causing nearby stones to pelt your foe in the face. </t>
+    <t xml:space="preserve">Manipulate the ever-present Earth beneath your feet, digging mighty trenches or raising enormous walls, or simply causing nearby stones to pelt your foe in the face. 
+Earth-wizards have been known to create warrens of tunnels, or move through the earth like one might walk on land – there are even whispers of mages bringing entire cities to ruin with an earthquake. </t>
   </si>
   <si>
     <t xml:space="preserve">Further Elemental Studies </t>
@@ -578,7 +588,8 @@
     <t xml:space="preserve">Glacius</t>
   </si>
   <si>
-    <t xml:space="preserve">Create and manipulate icy temperatures, and use this to freeze liquids solid.  </t>
+    <t xml:space="preserve">Project and control freezing blasts of air, and manipulate ice and other frozen objects, or summon a blizzard of snow to obscure and protect your allies from view. 
+Few witches are as feared as those who fling gigantic icicles at their foe as they ride a glacier galloping down a valley. </t>
   </si>
   <si>
     <t xml:space="preserve">Secrets of Elemental Sorcery</t>
@@ -600,7 +611,8 @@
     <t xml:space="preserve">Ventillio</t>
   </si>
   <si>
-    <t xml:space="preserve">Bend the winds to your command, generate mighty gusts of wind to hamper your foes, distract opponents and even mighty storms. </t>
+    <t xml:space="preserve">Bend the winds to your command, generate mighty gusts of wind to hamper your foes, distract opponents, or summon gigantic storms to tear entire buildings to the ground. 
+It is said that the \imp{Gust} spell was the secret to \imp{Voldemort}’s human-flight spell, though this is understandably a taboo subject. </t>
   </si>
   <si>
     <t xml:space="preserve">Storms, Seas and Seismic Shocks</t>
@@ -618,7 +630,8 @@
     <t xml:space="preserve">Lumos</t>
   </si>
   <si>
-    <t xml:space="preserve">Create and manipulate light, directing it to guide your way, or burn away the evil things which reside in the darkness. </t>
+    <t xml:space="preserve">At its most basic level, \imp{Illumination} allows one to see in the dark – either by igniting the tip of your wand, activating disused lights, or floating globules of sunlight. You might even stretch yourself to do the opposite, and turn out the lights, or bend and redirect the light at your will. 
+However, the ability to direct bright sunlight into your foes is surprisingly useful – rendering someone \imp{blind} is not to be sniffed at, and with sufficient focus one can focus the beams of light to deal \imp{Incandescent} damage, which is particularly harmful to the evil and undead creatures which inhabit the world. </t>
   </si>
   <si>
     <t xml:space="preserve">Light in the Darkness: The Forgotten Element</t>
@@ -639,7 +652,8 @@
     <t xml:space="preserve">Baubilius</t>
   </si>
   <si>
-    <t xml:space="preserve">Generate and direct bolts of electrical energy. </t>
+    <t xml:space="preserve">There are few joys in the world as great as summoning a gigantic bolt of lightning from the end of your wand – one might call the experience {\it electric}. 
+The ability to manipulate the force of electricity is somewhat more nuanced, however – from the tiniest spark, to the mightiest thunderstorm. Perhaps one of the most unused aspects of this spell is its ability to manipulate muggle electronic equipment, by manipulating the flow of energy in their devious contraptions. </t>
   </si>
   <si>
     <t xml:space="preserve">The Fundamental Power</t>
@@ -658,13 +672,14 @@
     <t xml:space="preserve">\spExample{Thunderstrom}{Summon a mighty electrical storm overhead, and direct bolts of lightning to attack your foes.}</t>
   </si>
   <si>
-    <t xml:space="preserve">Soak</t>
+    <t xml:space="preserve">Flood</t>
   </si>
   <si>
     <t xml:space="preserve">Augamente</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate and create water and other fluids or mixtures which contain large amounts of water and other similar substances, such as alcohol or acids. </t>
+    <t xml:space="preserve">With the \imp{Flood} spell, one gains the ability to manipulate elemental water – as well as any fluidic substance which contains a large amount of water. You can also summon jets of pure water from the end of your wand – either for drinking purposes, to put out a raging inferno, or to blast an enemy in the face with. 
+</t>
   </si>
   <si>
     <t xml:space="preserve">Laughable Liquidation</t>
@@ -688,8 +703,8 @@
     <t xml:space="preserve">Enervate</t>
   </si>
   <si>
-    <t xml:space="preserve">Restore life to a target, causing their wounds to knit shut and repair broken bones. 
-A basic \imp{Heal} spell removes one level of harm for each point of \imp{Power}. </t>
+    <t xml:space="preserve">A \imp{Healing} spell restores life to the target, causing their wounds to knit shut, broken bones to set and repair and torn muscles to heal. Basic healing spells simply heal the surface wounds – more complex injuries require a more powerful version of the spell, and the ability to regrow limbs or repair organs from 
+A basic \imp{Heal} spell removes one level of harm for each point of \imp{Power}, but cannot remove \imp{status} effects, and has no effect on patients who are in a \imp{critical condition} or worse, \imp{dead}. </t>
   </si>
   <si>
     <t xml:space="preserve">Cures, Cantrips and Coughs</t>
@@ -713,56 +728,24 @@
     <t xml:space="preserve">Purify</t>
   </si>
   <si>
-    <t xml:space="preserve">Largitus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banish rot and decay, cause evil magics to burn away and defy attempts to defile living beings with necromantic magic. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purity of Body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\spExample{Preserve}{Prevent food from rotting.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\spExample{Basic Countercurse}{Remove the effects of an active curse.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\spExample{Sanctity}{Prevent dark magic from targeting a being for a short time, or prevent a dead body from being defiled by undeath.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\spExample{Purify the Defiled}{Target a large number of undead creatures and dismantle the foul magic holding them together.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patronus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expecto Patronum</t>
   </si>
   <si>
-    <t xml:space="preserve">Project powerful postivie energies into the world, known as a `patronus’, powered by powerful positive memories. Beings which are an antithesis to life, such as dementors and demons, find this energy repulsive and harmful. </t>
+    <t xml:space="preserve">The \imp{Purify} spell, also known as the `Patronus charm’, projects powerful positive energies which protect against necrotic or necromantic forces. 
+This energy can burn away rot and decay from food, counter powerful curses and protect against defiling spells which raise \imp{Inferi}. 
+Beings which are an antithesis to life, such as demons and dementors, find this energy repulsive and harmful – some mages have been known to summon a powerful corporeal guardian using this spell, though this is recognised as an incredibly advanced feat. </t>
   </si>
   <si>
     <t xml:space="preserve">Manipulating the Forces of Life</t>
   </si>
   <si>
-    <t xml:space="preserve">\spExample{Tainted Taste}{The weakest form of patronus, offers little protection, but makes you `taste’ worse to foul beings, and hence a less tempting target.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\spExample{Corporeal Patronus}{Summon a patronus which takes the form of you `spirit animal’. This being guides and protects you whilst the spell lasts.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\spExample{Denial of the Defiled}{An immense shockwave of positive energy deals immense damage to unnatural and evil beings nearby.}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Restore</t>
   </si>
   <si>
     <t xml:space="preserve">Episkey</t>
   </si>
   <si>
-    <t xml:space="preserve">Fight off negative effects beyond simple cuts and bruises: cure poisons and diseases, remove the effects of magical terror and similar effects. 
-You may remove harmful status effects, or reduce their power by an amount equal to the spell power. </t>
+    <t xml:space="preserve">Not all afflictions take the form of cuts and bruises – for more complex afflictions you will need to rely on the \imp{Restore} spell. This spell helps cure poisons and diseases, remove the effects of magical terror and counter other negative status effects originating from within the body. </t>
   </si>
   <si>
     <t xml:space="preserve">Journals of St. Mungo, the Master Healer</t>
@@ -783,7 +766,9 @@
     <t xml:space="preserve">Omnium</t>
   </si>
   <si>
-    <t xml:space="preserve">Provide nourishing energy to a target, allowing it to grow and continue its existence, protected and provided for. </t>
+    <t xml:space="preserve">The \imp{Sustain} spell allows one to project nourishing energy into a target. 
+Herbologists and gardeners use this spell to rapidly grow plants, pushing the life-giving energy into them, shaping and controlling their growth. The great herbologist Linneus was said to be able to grow an oak from an acorn in mere minutes, and once shaped a tree into an obscene gesture as an act of defiance. 
+When directed at a human (infinitely more complex than a plant), this typically allows them to forgo the need to breath oxygen for a while, or replaces the need to eat – their lifeforce being sustained through magic rather than mundane means, for a short while. </t>
   </si>
   <si>
     <t xml:space="preserve">Life, and How to Preserve it</t>
@@ -804,7 +789,8 @@
     <t xml:space="preserve">Reducto</t>
   </si>
   <si>
-    <t xml:space="preserve">Tear into a target with a great magical force and reduce them to ash and dust. </t>
+    <t xml:space="preserve">When one wishes to tear into a target with great magical ferocity, or reduce an entity to ash and dust, the \imp{Disintegrate} spell is surely the tool to use. 
+A very dangerous tool in the wrong hands, this is a very powerful offensive weapon. </t>
   </si>
   <si>
     <t xml:space="preserve">Basic Hexes for the Busy \&amp; Vexed</t>
@@ -822,7 +808,8 @@
     <t xml:space="preserve">Flipendo</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate and create shockwaves and walls of ethereal force which push and crush your enemies. A \imp{Force} spell often has two effects (harming and moving within space), and so has two diifferent power ratings for each of these effects. It is up to the caster to decide how to delegate power points into the effect. </t>
+    <t xml:space="preserve">A \imp{Force} spell allows one to manipulate and create shockwaves and walls of ethereal force which push and crush your enemies. 
+A \imp{Force} spell often has two effects (harming a foe and pushing them around), it is up to the caster to decide how to much power is delegated to each effect. </t>
   </si>
   <si>
     <t xml:space="preserve">Hexes to Make Your Head Spin (Literally)</t>
@@ -843,8 +830,8 @@
     <t xml:space="preserve">Verdimillius</t>
   </si>
   <si>
-    <t xml:space="preserve">Summon a blast of magical energy to strike out towards your target, damaging them and imbuing them with negative effects. 
-As jinxes can often both hurt and imbue negative effects they are treated as having two separate \imp{Power} ratings for each of these effects, it is up to the caster how to delegate the available points into each effect. Jinxes are an opportunity to be inventive with your attacks!</t>
+    <t xml:space="preserve">A \imp{Jinx} is a multi-purpose offensive spell, with the exact effect greatly affected by the intent of the caster. 
+Whilst many \imp{Jinxes} focus on hurting the target, it is common for the caster to imbue the spell with other side effects – perhaps the spell forces them to roll around on the floor laughing as they are tickled, or their hands reverse on their wrists to face the wrong direction. The exact effects imbued, and their relative power, is up to the caster – the trick to winning a duel is often in using your \imp{Jinxes} effectively!</t>
   </si>
   <si>
     <t xml:space="preserve">Hexing Your Problems - the Healthy Coping Mechanism</t>
@@ -865,7 +852,8 @@
     <t xml:space="preserve">Sectumsempra</t>
   </si>
   <si>
-    <t xml:space="preserve">Your magic is honed into a lethal weapon, mimickig sword strikes and hammer blows.</t>
+    <t xml:space="preserve">A spell designed by the erstwhile potions master of Hogwarts, the \imp{Strike} spell allows a \imp{battlemage} to land mighty hammer blows, or vicious sword strike on their foes – without the difficulty of needing a weapon, or knowing how to use it. 
+The \imp{Strike} spell allows one to slice, stab or cut into the flesh of your opponent – though a more peaceful minded mage might repurpose this spell to cut down trees, or hammer in nails. </t>
   </si>
   <si>
     <t xml:space="preserve">Dark Forces: A Guide to Self-Defense</t>
@@ -889,7 +877,8 @@
     <t xml:space="preserve">Stabit</t>
   </si>
   <si>
-    <t xml:space="preserve">Halt an object or being in motion, and hold it in space. </t>
+    <t xml:space="preserve">Is something, or someone, moving and you don’t want it to? The \imp{Halt} spell is here to help. 
+From catching projectiles, or halting a fleeing foe in their tracks, the \imp{Halt} spell is bound to have endless uses. It is rumoured that a particularly powerful version of this spell is used at \imp{Gringotts} – when an intruder is detected, a field is projected which makes it impossible for anyone or anything to move within a certain region. </t>
   </si>
   <si>
     <t xml:space="preserve">The Standard Book of Spells</t>
@@ -907,7 +896,7 @@
     <t xml:space="preserve">Wingardium Leviosa</t>
   </si>
   <si>
-    <t xml:space="preserve">Cause objects and beings to levitate, float and move around at your desire. </t>
+    <t xml:space="preserve">When one \imp{Move}s an object, you use magic to float it around in space. The most basic version of this spell simply allows you to lift objects vertically upwards – with more finesse and control, you gain the ability to telekinetically move objects around in 3D space – though heavier objects require much more power to lift. </t>
   </si>
   <si>
     <t xml:space="preserve">Achievements in Charming</t>
@@ -928,7 +917,8 @@
     <t xml:space="preserve">Reparo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reassemble a broken object and restore its non-magical functionality. Generally, the caster must have a rough idea what the broken object is before they can attempt this spell.</t>
+    <t xml:space="preserve">The \imp{Repair} spell allows one to reassemble a broken object and restore its non-magical functionality, the broken remains slot back into their respective places and seal any cracks or breaks. 
+Generally, the caster must have a rough idea what the broken object is before they can attempt this spell, and the vast majority of the object must be present for it to be fixed – more powerful \imp{Repair} jobs can sidestep this issue, and can repair things even if it has been totally eviscerated and reduced to ash. </t>
   </si>
   <si>
     <t xml:space="preserve">Motion: A Treatise</t>
@@ -952,7 +942,7 @@
     <t xml:space="preserve">Accio</t>
   </si>
   <si>
-    <t xml:space="preserve">Imbue an object with a target, and cause it to seek it out, either summoning a distant object to you, or causing your strikes to land more accurately. </t>
+    <t xml:space="preserve">A \imp{Seek} spell imbues the target with purpose: it will strive to reach the specified target, through any means necessary. Some wizards find this spell useful to summon objects to them, whilst others use it to create snowballs which unerringly seek out their target. </t>
   </si>
   <si>
     <t xml:space="preserve">Extreme Incantations</t>
@@ -973,8 +963,8 @@
     <t xml:space="preserve">Cruratele</t>
   </si>
   <si>
-    <t xml:space="preserve">Cause an object to vanish and reappear at another point in space. Teleporting only really works if the caster is incredibly familiar with the target location – preferably having spent more than a trivial amount of time there, or being currently able to see it. 
-Apparating organic matter can be somewhat troublesome, and even with a successful transport, you may suffer a `splinch’ event, and must seek medical attention. </t>
+    <t xml:space="preserve">\imp{Apparating} is a form of teleportation, and can cause an object to vanish and reappear at another point in space. Teleporting only really works if the caster is incredibly familiar with the target location – preferably having spent more than a trivial amount of time there, or being currently able to see it.
+Apparating can often be quite dangerous, especially when trying to transport living beings, as the risk of \key{splinching} oneself is quite high, so it is recommended that this only be attempted by trained individuals. </t>
   </si>
   <si>
     <t xml:space="preserve">The Matter of Mass</t>
@@ -1001,7 +991,8 @@
     <t xml:space="preserve">Carnes Mortis</t>
   </si>
   <si>
-    <t xml:space="preserve">Project evil necrotic energies which sap at the life force of all living beings. Plants wither and die, and wounds fester and become gangrenous. </t>
+    <t xml:space="preserve">\imp{Blight} spells are evil acts which project awful necrotic energies which sap at the life force of all living beings. 
+Plants subjected to this spell will wither and die, and the wounds on living beings fester and become gangrenous as the \imp{Necrotic} damage seeps into their flesh. </t>
   </si>
   <si>
     <t xml:space="preserve">Defying Nature</t>
@@ -1019,7 +1010,9 @@
     <t xml:space="preserve">Sanguinus</t>
   </si>
   <si>
-    <t xml:space="preserve">Use the inherent power of blood to perform profane rituals in which you place powerful, lifelong curses on entire bloodlines, or cause harm to a target by boiling their lifeblood in their veins. </t>
+    <t xml:space="preserve">When one uses a spell to \imp{Defile}, you conduct a profane blood-ritual which allows you to place powerful life-long curses on entire bloodlines, or corrupt powerful enchantments on a place, turning them to darkness for your own end. 
+The most powerful curses are cast using a \imp{Defile} spell. 
+</t>
   </si>
   <si>
     <t xml:space="preserve">Magick Moste Evile</t>
@@ -1034,7 +1027,8 @@
     <t xml:space="preserve">Exbibo Maledictum</t>
   </si>
   <si>
-    <t xml:space="preserve">Channel life force and other magical energies out of a living being in order to bolster your own abilities. </t>
+    <t xml:space="preserve">The \imp{Drain} spell uses vampiric energy to channel life force and other magical energies out of a living being, and into another being. 
+This energy can be used to fortify their own health, or used to power obscene acts of magic. </t>
   </si>
   <si>
     <t xml:space="preserve">Necromancy: A Misunderstood Skill</t>
@@ -1049,8 +1043,8 @@
     <t xml:space="preserve">Avada Kedavra</t>
   </si>
   <si>
-    <t xml:space="preserve">Project a blast of greenish light which severs the link between the soul and the body, causing death wherever it leads. 
-If a \imp{Kill} spell hits a target with at least a power rating of \imp{4} remaining, it instantly kills them. If the \imp{Power} is below 4, they take no \imp{Harm}, though the spell may manifest as a nosebleed, bloodshot eyes or similar.</t>
+    <t xml:space="preserve">The \imp{Killing Curse} is one of the \imp{Unforgivable Curses}, which severs the link between the soul and the body, causing death wherever it leads. 
+If a \imp{Kill} spell would reduce a target to \imp{Critical Condition}, they are instead instantly killed. If the spell does not kill them, the target instead takes no harm, but may bleed from the eyes or nose. </t>
   </si>
   <si>
     <t xml:space="preserve">Spelles Moste Vyle</t>
@@ -1086,7 +1080,7 @@
     <t xml:space="preserve">Inferi pareo</t>
   </si>
   <si>
-    <t xml:space="preserve">Command the bodies of the dead to obey you, summoning and manipulating the corpses of the deceased into your own zombie army. </t>
+    <t xml:space="preserve">Mighty \imp{Necromancers} of yore \imp{Raised} entire armies of undead servants to follow them into battle. Thuogh when first attempted you might struggle to animate even a mouse’s skeleton, powerful necromancers can \imp{Raise} thousands upon thousands of skeletons, dozens of \imp{Inferi} and other more powerful undead. </t>
   </si>
   <si>
     <t xml:space="preserve">Secrets of the Darkest Art</t>
@@ -1110,7 +1104,7 @@
     <t xml:space="preserve">Thanatos</t>
   </si>
   <si>
-    <t xml:space="preserve">Attune your mind to the realm of the spirits and ghosts, and manipulate them to your desire, compelling or persuading them to follow your requsts. </t>
+    <t xml:space="preserve">When you use magics which allow you to \imp{Attune}, you focus your mind on the realm of the spirits and ghosts. You can use this spell to see them, and manipulate spiritual creatures on the \imp{Mortal Realm} and beyond to your desire, compelling or persuading them to follow your requests. </t>
   </si>
   <si>
     <t xml:space="preserve">Theories on the World Beyond</t>
@@ -1125,7 +1119,8 @@
     <t xml:space="preserve">Profundo Diabolus</t>
   </si>
   <si>
-    <t xml:space="preserve">Summon and command demons, both those who reside on Earth, and those who exist beyond. Call upon them to serve you, bending them to your will. </t>
+    <t xml:space="preserve">\imp{Consorting} is a dangerous set of magic which allows one to summon, command and converse with demonic entities. 
+You may call on them to serve your will,  or answer your questions – but beware that without great \imp{concentration}, these beasts will often try to turn on their master. </t>
   </si>
   <si>
     <t xml:space="preserve">The Outer Planes</t>
@@ -1137,7 +1132,7 @@
     <t xml:space="preserve">Umbra</t>
   </si>
   <si>
-    <t xml:space="preserve">Manipulate and control darkness and shadows, extinguishing light or hurling bolts of dark energy towards your foes. </t>
+    <t xml:space="preserve">The \imp{Eclipse} spell gives one control over darkness and shadows, allowing one to manipulate them to your will. You can use this to plunge a region into darkness, sneak in shadow whilst the sun beats down, or to hurl necrotic blasts of shadow energy at your foe. </t>
   </si>
   <si>
     <t xml:space="preserve">An A-Z of Spooky Spells</t>
@@ -1152,21 +1147,6 @@
     <t xml:space="preserve">\spExample{Blot the Sun}{Summon a darkness so complete it blots out the sun and the moon: Vampires, Werewolves and other such creatures gain full control over their abilities.}</t>
   </si>
   <si>
-    <t xml:space="preserve">Supplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conpreco Estra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prostrate yourself before a mighty, otherworldly power, and beg them for your assistance. Learn hidden and unknowable secrets, gain mighty boons, or draw down their wrath on your foes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Living in Shadow: The Memoirs of an Occultist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\spExample{Deal with the Devil}{Offer something in return for a powerful boon, such as knowledge, or temporary use of an unknown spell.}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compel</t>
   </si>
   <si>
@@ -1176,7 +1156,7 @@
     <t xml:space="preserve">Imperio</t>
   </si>
   <si>
-    <t xml:space="preserve">Force a target to obey your commands, layering your words with power.  
+    <t xml:space="preserve">When you \imp{Compel} someone, your force a them to obey your commands, layering your words with power.  The target will unthinkingly obey your words as long as you maintain \imp{Concentration}. 
 Where there is conflict between the effectiveness of a \imp{Compel} vs a \imp{Delude}, remember that the effects of a \imp{Compel} tend to be larger and more dramatic than a \imp{Delude}, but in turn a shorter lived. </t>
   </si>
   <si>
@@ -1198,7 +1178,7 @@
     <t xml:space="preserve">Credo Apina</t>
   </si>
   <si>
-    <t xml:space="preserve">Sneak an idea or belief into a target’s mind, and force them to believe it as true. Cause a target to see things which are not there, or make them believe they can fly. </t>
+    <t xml:space="preserve">A \imp{Delude} spell allows you to sneak an idea into a being’s very mind, causing them to believe it as absolute truth. A benevolent mage might use this to give a being confidence in their own abilities, or distract someone with false images inside their head, whilst a malicious one might convince their enemy that they can fly by jumping off a tall building…</t>
   </si>
   <si>
     <t xml:space="preserve">Cool Cantrips to Make You Crazy</t>
@@ -1213,13 +1193,14 @@
     <t xml:space="preserve">\spExample{Cognitive Dissonance}{Using a single sentence, describe an idea. The target will believe this idea with all their heart, even if it totally contradicts everything else they know about reality. They will act on this idea as if it were their own, deeply held belief.}</t>
   </si>
   <si>
-    <t xml:space="preserve">Recall</t>
+    <t xml:space="preserve">Remind</t>
   </si>
   <si>
     <t xml:space="preserve">Obliviate</t>
   </si>
   <si>
-    <t xml:space="preserve">The domain of memory: view, remove and even alter the memories of your target. </t>
+    <t xml:space="preserve">The \imp{Remind} spell covers the domain of memory – with this spell you can force a target to relive a specific memory, or you can tear it from their skull to wipe their mind. 
+With sufficient control you can fabricate enter reams of memory, giving a target a completely new recollection of events. </t>
   </si>
   <si>
     <t xml:space="preserve">The Apotheosis of the Psionics</t>
@@ -1237,7 +1218,8 @@
     <t xml:space="preserve">Crucio</t>
   </si>
   <si>
-    <t xml:space="preserve">Target the sanity of your target, forcing imaginary, searing pain into their mind, causing them immense mental physical pain and anguish. </t>
+    <t xml:space="preserve">The \imp{Torture} spell allows you to inflict huge amounts of pain on a target, without leaving a visible mark anywhere. 
+The target feels immense amounts of pain as you direct, feeling as if they are on fire, or being stabbed with a dozen swords. More powerful versions of this spell allow one to \imp{immobilise} a foe whilst you maintain \imp{Concentration}, or rend their brain with \imp{psychic} damage. </t>
   </si>
   <si>
     <t xml:space="preserve">Mindmakers, Mindbreakers</t>
@@ -1255,7 +1237,8 @@
     <t xml:space="preserve">Dicemi</t>
   </si>
   <si>
-    <t xml:space="preserve">Learn the nature of a target, learning its capabilities its abilities and its place in the world. </t>
+    <t xml:space="preserve">The \imp{Identify} spell wraps a targeted object or being with magic, extracting information about its past and its present, allowing one to learn a great deal of information about what the object might be, and what it does. 
+More powerful attempts to \imp{Identify} can frustrate attempts at deception and concealment, as well as reveal more in-depth information about a target. </t>
   </si>
   <si>
     <t xml:space="preserve">Knowledge From the Realms Beyond</t>
@@ -1270,8 +1253,8 @@
     <t xml:space="preserve">Astra</t>
   </si>
   <si>
-    <t xml:space="preserve">Glimpse the majesty of the multiverse: you gain the ability to sense the \imp{Realms} which exist beyond the mortal coil, and with enough control, you may travel there, or erect portals. 
-At low levels, you are restricted to brief forays into the \imp{Astral Realm} alone, going to realms further afield is a significant act of power. </t>
+    <t xml:space="preserve">Glimpse the majesty of the multiverse: with a \imp{Traverse} spell you gain the ability to sense the \imp{Realms} which exist beyond the mortal coil, and with enough control, you may travel there, and even erect \imp{portals} allowing easy transport – though this is an ancient and long-lost art. 
+At low levels, you are restricted to brief forays into the \imp{Astral Realm} alone, even gaining a glimpse of realms further afield a significant act of power. </t>
   </si>
   <si>
     <t xml:space="preserve">Death Omens: What to Do When You Know the Worst is Coming</t>
@@ -1286,7 +1269,8 @@
     <t xml:space="preserve">Providentia</t>
   </si>
   <si>
-    <t xml:space="preserve">Get a brief snapshot into the future, learning what is to come. Use this to inform your actions, or to prepare your reflexes for when disaster strikes. </t>
+    <t xml:space="preserve">A \imp{Prophesy} allows one to get a brief snapshot into the past, present of future, learning what is soon to come, what is, or what was. Be it a major event on the horizon, the secret history of your family, or merely the hidden assassins around the corner, you can use this to inform your actions, or to prepare your reflexes for when disaster strikes. 
+The most effective acts of \imp{Prophesy} are through rituals – reading of tea leaves, peering into crystal balls. These acts can focus the mind and give a clearer picture of the events you are looking in upon. </t>
   </si>
   <si>
     <t xml:space="preserve">Unfogging the Future</t>
@@ -1298,25 +1282,12 @@
     <t xml:space="preserve">Videro</t>
   </si>
   <si>
-    <t xml:space="preserve">Cast your mind through space, to observe another being or location without their knowing. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Dream Oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempus Fugit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipulate and alter the most fundamental aspects of nature: manipulating time and the barriers between universes. Alter the flow of time, projecting yourself or others backwards or forwards into the timestream, or open portals into other realms of existence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stepping Through the Ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\spExample{Stopwatch}{Perfectly keep track of the passage of time and the duration between events. }</t>
+    <t xml:space="preserve">A \imp{Scrying} spell allows one to cast their senses over vast distances, gaining the ability to see, hear, smell and experience what is going on around. 
+In order to scry on a person or a location, you must generally know their name (and their {\it real} name), or be very familiar with the location, though with signifiant power you can bypass these steps. 
+A beginner \imp{scry} spell might be used to look around corners without revealing oneself, as the distance over which you can \imp{scry} is a function of how powerful the spell is. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Third Eye And You</t>
   </si>
   <si>
     <t xml:space="preserve">Abjure</t>
@@ -1328,7 +1299,8 @@
     <t xml:space="preserve">Finite Incantatem</t>
   </si>
   <si>
-    <t xml:space="preserve">Drain a magical effect of its power, breaking the enchantment and ending the spell, or simply prevent a spell from ever being cast in the first place. </t>
+    <t xml:space="preserve">The \imp{Abjure} spell is also known as the {\it common counterspell}, as it allows you to drain a magical effect of its power, breaking the enchantment and ending the spell. Advanced practitioners can also use this spell to prevent a spell from ever being cast in the first place, halting the magic before it can ever be summoned. 
+The more powerful the magic you are targeting, the more powerful the \imp{abjure} spell you must use in order to counter or dispel it. </t>
   </si>
   <si>
     <t xml:space="preserve">An Anthology of Safeguarding Measures</t>
@@ -1340,7 +1312,8 @@
     <t xml:space="preserve">Adverso</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase the ability of a target to fight back, or provide it with protection from certain forms of harm.</t>
+    <t xml:space="preserve">A ward of \imp{Resistance} doesn’t inherently protect its target in the same way that a \imp{shield} spell might, but it provides its target with an additional layer of protection to bolster their own natural defences – under the protection of a \imp{Resist} spell, their sidesteps and dodges are just a bit quicker, and their armour just that bit tougher. 
+A powerful \imp{warder} might also use this spell to provide a target with \imp{Resistance}, or even \imp{Immunity} to a certain kind of damage, though this is quite a powerful act. </t>
   </si>
   <si>
     <t xml:space="preserve">Defending Against  the Undefendable</t>
@@ -1352,8 +1325,8 @@
     <t xml:space="preserve">Protego</t>
   </si>
   <si>
-    <t xml:space="preserve">Protect a being, location or object from negative influence, deflecting attacks and repelling intruders. 
-The \imp{Power} of a shield is the amount of \imp{Harm} which it reduces an attack by. </t>
+    <t xml:space="preserve">The \imp{Shield} spell does exactly what it says on the tin: it produces an ethereal magic shield which can protect an individual or a location from harm, repel intruders and otherwise offer protection to those under its protection. 
+\imp{Shield} spells have also been known to be used to place walls of near-impenetrable force over doorways to prevent access, or to lock doors to deter intruders. </t>
   </si>
   <si>
     <t xml:space="preserve">Self-Defensive Spellwork</t>
@@ -1371,7 +1344,8 @@
     <t xml:space="preserve">Dolus</t>
   </si>
   <si>
-    <t xml:space="preserve">Lay a hidden surprise to ambush your foes, activating when they least expect it. </t>
+    <t xml:space="preserve">A \imp{Trap} spell allows you to hide a nasty (or perhaps merely surprising) effect, lying in wait for another to activate it. 
+From a simple proximity alarm, to a glyph which detonates when it detects the presence of a dragon, the \imp{Trap} spell encourages its users to be as inventive, sneaky and cunning as they possible can. </t>
   </si>
   <si>
     <t xml:space="preserve">How Not to be Killed: A Guide for the Discerning Wizard</t>
@@ -1386,7 +1360,8 @@
     <t xml:space="preserve">Alohamora</t>
   </si>
   <si>
-    <t xml:space="preserve">Sidestep security measures, temporarily unlocking doors, disabling alarms and so on. These measures reactivate when the spell wears off, as if you were never there. </t>
+    <t xml:space="preserve">The \imp{Bypass} spell allows one to sidestep security measures, temporarily unlocking doors, disabling alarms and so on. With a particularly powerful \imp{bypass} spell, you may find yourself able to walk through walls, completely bypassing all forms of magical and physical defenses.
+Any magical or mundane measures usually reactivate when the spell wears off, as if you were never there. This can be a blessing, but you must also be careful when retracing your steps!</t>
   </si>
   <si>
     <t xml:space="preserve">Sidestepping Those Who Oppose You</t>
@@ -1399,9 +1374,6 @@
   </si>
   <si>
     <t xml:space="preserve">\spExample{Ghoststep}{Enchant a group of people with powerful magic such that they do not trigger traps or alarms, and locks simply fall open for them. They can still be  detected visually, but most mechanical and magical means of detection and obstruction are ineffective.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healing</t>
   </si>
 </sst>
 </file>
@@ -1514,15 +1486,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C37" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
-      <selection pane="topRight" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C55" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+      <selection pane="topRight" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.35"/>
@@ -1578,7 +1550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
@@ -1629,7 +1601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>27</v>
       </c>
@@ -1741,7 +1713,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>58</v>
       </c>
@@ -1767,7 +1739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>65</v>
       </c>
@@ -1799,7 +1771,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>74</v>
       </c>
@@ -1848,7 +1820,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>88</v>
       </c>
@@ -1868,7 +1840,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="102.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>93</v>
       </c>
@@ -1897,7 +1869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>101</v>
       </c>
@@ -1946,7 +1918,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>115</v>
       </c>
@@ -1975,7 +1947,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>123</v>
       </c>
@@ -2001,7 +1973,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>130</v>
       </c>
@@ -2068,7 +2040,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>148</v>
       </c>
@@ -2091,7 +2063,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>154</v>
       </c>
@@ -2132,7 +2104,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>167</v>
       </c>
@@ -2161,7 +2133,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>175</v>
       </c>
@@ -2210,7 +2182,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>188</v>
       </c>
@@ -2265,7 +2237,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>203</v>
       </c>
@@ -2323,7 +2295,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>220</v>
       </c>
@@ -2339,1002 +2311,923 @@
       <c r="E30" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F30" s="1" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>228</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>211</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="0"/>
+      <c r="I31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E31" s="1" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I31" s="0"/>
-      <c r="J31" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>235</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>211</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="B33" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="C33" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="H32" s="0"/>
-      <c r="I32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="H33" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="M33" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="B34" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="H34" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="J34" s="0"/>
+      <c r="K34" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="B35" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="H35" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J35" s="0"/>
-      <c r="K35" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E36" s="1" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="C37" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E37" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="B38" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="H38" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="M38" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D38" s="1" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="B39" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C39" s="0" t="s">
+      <c r="I39" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="H40" s="0"/>
+      <c r="I40" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G40" s="1" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="B41" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="F41" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G41" s="1" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="H41" s="0"/>
-      <c r="I41" s="1" t="s">
+      <c r="B42" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="C42" s="0" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F42" s="1" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="B43" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="H43" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B43" s="0" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="B44" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M43" s="1" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="B45" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="H45" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="I45" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M45" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F46" s="1" t="s">
         <v>334</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J46" s="1" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="C47" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C47" s="0" t="s">
+      <c r="G47" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D47" s="1" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="B48" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M47" s="1" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="B49" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="50" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="B50" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="C50" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G50" s="1" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="B51" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" s="0" t="s">
+      <c r="G51" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="I51" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I51" s="1" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="B52" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G52" s="1" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="B53" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="C53" s="0" t="s">
+      <c r="G53" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D53" s="1" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="B54" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="C54" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="C54" s="0" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="B55" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="56" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="C55" s="0" t="s">
+      <c r="B56" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G55" s="1" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="B57" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D56" s="1" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="B58" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="C58" s="0" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D57" s="1" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="B59" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="C58" s="0" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="B60" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="F60" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E59" s="1" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="B61" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F60" s="1" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="B62" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="M62" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>422</v>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <f aca="false">COUNTIF(B$2:B$61,C64)</f>
+        <v>4</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>422</v>
+        <v>14</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <f aca="false">SUM(F64:M64)</f>
+        <v>332</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <f aca="false">COUNTBLANK(F1:F62)</f>
+        <v>34</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <f aca="false">COUNTBLANK(G1:G62)</f>
+        <v>20</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <f aca="false">COUNTBLANK(H1:H62)</f>
+        <v>41</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <f aca="false">COUNTBLANK(I1:I62)</f>
+        <v>39</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <f aca="false">COUNTBLANK(J1:J62)</f>
+        <v>55</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <f aca="false">COUNTBLANK(K1:K62)</f>
+        <v>55</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <f aca="false">COUNTBLANK(L1:L62)</f>
+        <v>58</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <f aca="false">COUNTBLANK(M1:M62)</f>
+        <v>30</v>
+      </c>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="n">
+        <f aca="false">COUNTIF(B$2:B$61,C65)</f>
+        <v>4</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>447</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="n">
+        <f aca="false">COUNTIF(B$2:B$61,C66)</f>
+        <v>4</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C67)</f>
+        <f aca="false">COUNTIF(B$2:B$61,C67)</f>
         <v>4</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <f aca="false">SUM(F67:M67)</f>
-        <v>347</v>
-      </c>
-      <c r="F67" s="1" t="n">
-        <f aca="false">COUNTBLANK(F1:F65)</f>
-        <v>34</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <f aca="false">COUNTBLANK(G1:G65)</f>
-        <v>23</v>
-      </c>
-      <c r="H67" s="1" t="n">
-        <f aca="false">COUNTBLANK(H1:H65)</f>
-        <v>43</v>
-      </c>
-      <c r="I67" s="1" t="n">
-        <f aca="false">COUNTBLANK(I1:I65)</f>
-        <v>40</v>
-      </c>
-      <c r="J67" s="1" t="n">
-        <f aca="false">COUNTBLANK(J1:J65)</f>
-        <v>57</v>
-      </c>
-      <c r="K67" s="1" t="n">
-        <f aca="false">COUNTBLANK(K1:K65)</f>
-        <v>58</v>
-      </c>
-      <c r="L67" s="1" t="n">
-        <f aca="false">COUNTBLANK(L1:L65)</f>
-        <v>61</v>
-      </c>
-      <c r="M67" s="1" t="n">
-        <f aca="false">COUNTBLANK(M1:M65)</f>
-        <v>31</v>
-      </c>
-      <c r="N67" s="1"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C68)</f>
+        <f aca="false">COUNTIF(B$2:B$61,C68)</f>
         <v>4</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C69)</f>
-        <v>4</v>
+        <f aca="false">COUNTIF(B$2:B$61,C69)</f>
+        <v>7</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C70)</f>
+        <f aca="false">COUNTIF(B$2:B$61,C70)</f>
         <v>4</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C71)</f>
+        <f aca="false">COUNTIF(B$2:B$61,C71)</f>
         <v>4</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C72)</f>
-        <v>7</v>
+        <f aca="false">COUNTIF(B$2:B$61,C72)</f>
+        <v>5</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C73)</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(B$2:B$61,C73)</f>
+        <v>5</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>448</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C74)</f>
-        <v>4</v>
+        <f aca="false">COUNTIF(B$2:B$61,C74)</f>
+        <v>3</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>249</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C75)</f>
-        <v>5</v>
+        <f aca="false">COUNTIF(B$2:B$61,C75)</f>
+        <v>4</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C76)</f>
-        <v>5</v>
+        <f aca="false">COUNTIF(B$2:B$61,C76)</f>
+        <v>4</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>314</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C77)</f>
+        <f aca="false">COUNTIF(B$2:B$61,C77)</f>
         <v>4</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C78)</f>
-        <v>4</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C79)</f>
-        <v>5</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$64,C80)</f>
-        <v>4</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M64"/>
+  <autoFilter ref="A1:M61"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/Spells/Spells.xlsx
+++ b/CoreRulebook/Data/Spells/Spells.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="431">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -694,7 +694,7 @@
     <t xml:space="preserve">\spExample{Tsunami}{An enormous tidal wave surges from your wand, enough to destroy buildings and decimate armies.}</t>
   </si>
   <si>
-    <t xml:space="preserve">Heal</t>
+    <t xml:space="preserve">Regenerate</t>
   </si>
   <si>
     <t xml:space="preserve">Hermetics</t>
@@ -703,8 +703,8 @@
     <t xml:space="preserve">Enervate</t>
   </si>
   <si>
-    <t xml:space="preserve">A \imp{Healing} spell restores life to the target, causing their wounds to knit shut, broken bones to set and repair and torn muscles to heal. Basic healing spells simply heal the surface wounds – more complex injuries require a more powerful version of the spell, and the ability to regrow limbs or repair organs from 
-A basic \imp{Heal} spell removes one level of harm for each point of \imp{Power}, but cannot remove \imp{status} effects, and has no effect on patients who are in a \imp{critical condition} or worse, \imp{dead}. </t>
+    <t xml:space="preserve">A \imp{Regenerating} spell restores life to the target, causing their wounds to knit shut, broken bones to set and repair and torn muscles to heal. Basic healing spells simply heal the surface wounds – more complex injuries require a more powerful version of the spell, and the ability to regrow limbs or repair organs from 
+A basic \imp{Regenerate} spell removes one level of harm for each point of \imp{Power}, but cannot remove \imp{status} effects, and has no effect on patients who are in a \imp{critical condition} or worse, \imp{dead}. </t>
   </si>
   <si>
     <t xml:space="preserve">Cures, Cantrips and Coughs</t>
@@ -745,7 +745,7 @@
     <t xml:space="preserve">Episkey</t>
   </si>
   <si>
-    <t xml:space="preserve">Not all afflictions take the form of cuts and bruises – for more complex afflictions you will need to rely on the \imp{Restore} spell. This spell helps cure poisons and diseases, remove the effects of magical terror and counter other negative status effects originating from within the body. </t>
+    <t xml:space="preserve">Not all afflictions take the form of cuts and bruises which can be patched back together with a \imp{Regeneration} spell. For more complex afflictions you will need to rely on the \imp{Restore} spell. This spell helps cure poisons and diseases, remove the effects of magical terror and counter other negative status effects originating from within the body. </t>
   </si>
   <si>
     <t xml:space="preserve">Journals of St. Mungo, the Master Healer</t>
@@ -1374,6 +1374,20 @@
   </si>
   <si>
     <t xml:space="preserve">\spExample{Ghoststep}{Enchant a group of people with powerful magic such that they do not trigger traps or alarms, and locks simply fall open for them. They can still be  detected visually, but most mechanical and magical means of detection and obstruction are ineffective.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bestow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donus Magicus Altarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The act of \imp{Bestowing} is the act of giving a gift, and with this spell, one may grant and ask for gifts of all kinds. 
+Whether it be granting your allies a fragment of your own power in a moment of crisis, or if you beg for a boon from some nigh-omnipotent being, when your own power is insufficient, or you wish to help fuel another’s attempts, the \imp{Bestow} spell can be of great use. 
+Those who stumble upon this spell are often surprised that is considered a taboo `Dark Art’. Throughout history, however, the act of communing with great powers beyond human comprehension, and of asking for gifts of powers from them, has traditionally been associated with those heading down a dark and dangerous path.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Gray Arts?</t>
   </si>
 </sst>
 </file>
@@ -1467,12 +1481,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1482,21 +1496,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C55" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
-      <selection pane="topRight" activeCell="D60" activeCellId="0" sqref="D60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C62" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+      <selection pane="topRight" activeCell="D64" activeCellId="0" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="25.4"/>
@@ -1507,6 +1522,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,7 +2279,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>210</v>
       </c>
@@ -3063,167 +3079,21 @@
         <v>426</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C64)</f>
-        <v>4</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <f aca="false">SUM(F64:M64)</f>
-        <v>332</v>
-      </c>
-      <c r="F64" s="1" t="n">
-        <f aca="false">COUNTBLANK(F1:F62)</f>
-        <v>34</v>
-      </c>
-      <c r="G64" s="1" t="n">
-        <f aca="false">COUNTBLANK(G1:G62)</f>
-        <v>20</v>
-      </c>
-      <c r="H64" s="1" t="n">
-        <f aca="false">COUNTBLANK(H1:H62)</f>
-        <v>41</v>
-      </c>
-      <c r="I64" s="1" t="n">
-        <f aca="false">COUNTBLANK(I1:I62)</f>
-        <v>39</v>
-      </c>
-      <c r="J64" s="1" t="n">
-        <f aca="false">COUNTBLANK(J1:J62)</f>
-        <v>55</v>
-      </c>
-      <c r="K64" s="1" t="n">
-        <f aca="false">COUNTBLANK(K1:K62)</f>
-        <v>55</v>
-      </c>
-      <c r="L64" s="1" t="n">
-        <f aca="false">COUNTBLANK(L1:L62)</f>
-        <v>58</v>
-      </c>
-      <c r="M64" s="1" t="n">
-        <f aca="false">COUNTBLANK(M1:M62)</f>
-        <v>30</v>
-      </c>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C65)</f>
-        <v>4</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C66)</f>
-        <v>4</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C67)</f>
-        <v>4</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C68)</f>
-        <v>4</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C69)</f>
-        <v>7</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C70)</f>
-        <v>4</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C71)</f>
-        <v>4</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C72)</f>
-        <v>5</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C73)</f>
-        <v>5</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C74)</f>
-        <v>3</v>
-      </c>
-      <c r="C74" s="0" t="s">
+    <row r="63" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C75)</f>
-        <v>4</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C76)</f>
-        <v>4</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B$61,C77)</f>
-        <v>4</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>401</v>
+      <c r="C63" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
